--- a/examples/javascript/forms/MultipleXLSXAssets/MultipleXLSXAssets/Data/SchemaViews.xlsx
+++ b/examples/javascript/forms/MultipleXLSXAssets/MultipleXLSXAssets/Data/SchemaViews.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Content</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>LatestRightContent</t>
+  </si>
+  <si>
+    <t>MiddleViewKey as long</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,9 +384,10 @@
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -393,18 +397,21 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
